--- a/材料 人工 机械 信息价 市场价.xlsx
+++ b/材料 人工 机械 信息价 市场价.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="262">
   <si>
     <t>名称</t>
   </si>
@@ -802,14 +802,6 @@
   </si>
   <si>
     <t>江门市2013年第九月份市场参考价格</t>
-  </si>
-  <si>
-    <t>综合工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -819,7 +811,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -827,13 +819,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -865,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -876,9 +861,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1175,11 +1157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U170"/>
+  <dimension ref="A1:U169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -1222,15 +1204,17 @@
       <c r="U1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
-        <v>263</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1252,16 +1236,16 @@
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1283,16 +1267,16 @@
     </row>
     <row r="4" spans="1:21" ht="12.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>180</v>
+        <v>1800</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1314,16 +1298,13 @@
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>1800</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1345,13 +1326,14 @@
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1373,14 +1355,14 @@
     </row>
     <row r="7" spans="1:21" ht="12.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <v>160</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1402,14 +1384,14 @@
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1431,14 +1413,14 @@
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1460,14 +1442,14 @@
     </row>
     <row r="10" spans="1:21" ht="12.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8000</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1489,14 +1471,14 @@
     </row>
     <row r="11" spans="1:21" ht="12.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1518,14 +1500,14 @@
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>1500</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1547,14 +1529,16 @@
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
-        <v>36</v>
+        <v>410</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1576,16 +1560,16 @@
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2">
-        <v>410</v>
+        <v>309</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1607,16 +1591,14 @@
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2">
-        <v>309</v>
+        <v>87.4</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1638,14 +1620,16 @@
     </row>
     <row r="16" spans="1:21" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2">
-        <v>87.4</v>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1667,16 +1651,16 @@
     </row>
     <row r="17" spans="1:21" ht="12.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
+      <c r="D17" s="2">
+        <v>13.98</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1698,16 +1682,16 @@
     </row>
     <row r="18" spans="1:21" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="2">
-        <v>13.98</v>
+        <v>31.5</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1729,16 +1713,14 @@
     </row>
     <row r="19" spans="1:21" ht="12.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>31.5</v>
+        <v>41</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1760,14 +1742,16 @@
     </row>
     <row r="20" spans="1:21" ht="12.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1789,16 +1773,16 @@
     </row>
     <row r="21" spans="1:21" ht="12.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
+        <v>41.6</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1820,16 +1804,16 @@
     </row>
     <row r="22" spans="1:21" ht="12.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2">
-        <v>41.6</v>
+        <v>16100</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1854,13 +1838,13 @@
         <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2">
-        <v>16100</v>
+        <v>21.27</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1882,16 +1866,16 @@
     </row>
     <row r="24" spans="1:21" ht="12.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="2">
-        <v>21.27</v>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1912,17 +1896,13 @@
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>52.14</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1943,13 +1923,15 @@
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D26" s="2">
-        <v>52.14</v>
+        <v>208.54</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1971,14 +1953,14 @@
     </row>
     <row r="27" spans="1:21" ht="12.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2">
-        <v>208.54</v>
+        <v>59</v>
+      </c>
+      <c r="D27" s="3">
+        <v>41832</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2000,14 +1982,12 @@
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="3">
-        <v>41832</v>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2029,12 +2009,14 @@
     </row>
     <row r="29" spans="1:21" ht="12.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2060,10 +2042,10 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1700</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2085,14 +2067,14 @@
     </row>
     <row r="31" spans="1:21" ht="12.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D31" s="2">
-        <v>1700</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2114,14 +2096,14 @@
     </row>
     <row r="32" spans="1:21" ht="12.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="2">
-        <v>53</v>
+        <v>65</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2143,14 +2125,16 @@
     </row>
     <row r="33" spans="1:21" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="2">
+        <v>38</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2172,16 +2156,14 @@
     </row>
     <row r="34" spans="1:21" ht="12.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D34" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2203,14 +2185,14 @@
     </row>
     <row r="35" spans="1:21" ht="12.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D35" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2232,14 +2214,14 @@
     </row>
     <row r="36" spans="1:21" ht="12.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="2">
-        <v>160</v>
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2261,14 +2243,14 @@
     </row>
     <row r="37" spans="1:21" ht="12.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2290,14 +2272,16 @@
     </row>
     <row r="38" spans="1:21" ht="12.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C38" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2319,16 +2303,16 @@
     </row>
     <row r="39" spans="1:21" ht="12.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2350,16 +2334,16 @@
     </row>
     <row r="40" spans="1:21" ht="12.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2381,16 +2365,16 @@
     </row>
     <row r="41" spans="1:21" ht="12.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2412,16 +2396,16 @@
     </row>
     <row r="42" spans="1:21" ht="12.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2443,16 +2427,16 @@
     </row>
     <row r="43" spans="1:21" ht="12.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>90</v>
+      <c r="D43" s="2">
+        <v>55</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2474,16 +2458,14 @@
     </row>
     <row r="44" spans="1:21" ht="12.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="2">
-        <v>55</v>
+        <v>850</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2505,14 +2487,16 @@
     </row>
     <row r="45" spans="1:21" ht="12.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D45" s="2">
-        <v>850</v>
+        <v>315</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2534,16 +2518,16 @@
     </row>
     <row r="46" spans="1:21" ht="12.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D46" s="2">
-        <v>315</v>
+        <v>210</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2565,16 +2549,14 @@
     </row>
     <row r="47" spans="1:21" ht="12.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D47" s="2">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2596,14 +2578,14 @@
     </row>
     <row r="48" spans="1:21" ht="12.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2">
-        <v>229</v>
+        <v>3800</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2625,14 +2607,14 @@
     </row>
     <row r="49" spans="1:21" ht="12.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D49" s="2">
-        <v>3800</v>
+        <v>330</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2654,14 +2636,16 @@
     </row>
     <row r="50" spans="1:21" ht="12.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="2">
-        <v>330</v>
+        <v>59</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2683,16 +2667,14 @@
     </row>
     <row r="51" spans="1:21" ht="12.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2713,15 +2695,17 @@
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="2"/>
+      <c r="A52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
+      </c>
+      <c r="D52" s="2">
+        <v>270</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2742,17 +2726,17 @@
       <c r="U52" s="2"/>
     </row>
     <row r="53" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A53" s="1" t="s">
-        <v>82</v>
+      <c r="A53" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="2">
-        <v>270</v>
+      <c r="D53" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2774,16 +2758,14 @@
     </row>
     <row r="54" spans="1:21" ht="12.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>111</v>
+      <c r="D54" s="2">
+        <v>480</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2805,14 +2787,14 @@
     </row>
     <row r="55" spans="1:21" ht="12.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D55" s="2">
-        <v>480</v>
+        <v>173</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2834,14 +2816,14 @@
     </row>
     <row r="56" spans="1:21" ht="12.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D56" s="2">
-        <v>173</v>
+        <v>9610</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2863,14 +2845,14 @@
     </row>
     <row r="57" spans="1:21" ht="12.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="2">
-        <v>9610</v>
+        <v>116</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2892,14 +2874,16 @@
     </row>
     <row r="58" spans="1:21" ht="12.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="C58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>59</v>
+      </c>
+      <c r="D58" s="2">
+        <v>204</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2921,16 +2905,16 @@
     </row>
     <row r="59" spans="1:21" ht="12.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D59" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2952,16 +2936,16 @@
     </row>
     <row r="60" spans="1:21" ht="12.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="2">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2983,18 +2967,17 @@
     </row>
     <row r="61" spans="1:21" ht="12.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="2">
-        <v>166</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <f>E65*5</f>
+        <v>940</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -3017,13 +3000,17 @@
         <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1600</v>
+      </c>
       <c r="E62" s="2">
-        <f>E66*5</f>
-        <v>940</v>
+        <f>E65*2.5</f>
+        <v>470</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3047,17 +3034,17 @@
         <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D63" s="2">
-        <v>1600</v>
+        <v>1072</v>
       </c>
       <c r="E63" s="2">
-        <f>E66*2.5</f>
-        <v>470</v>
+        <f>E65*1.5</f>
+        <v>282</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -3081,17 +3068,15 @@
         <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="2">
-        <v>1072</v>
-      </c>
+      <c r="D64" s="2"/>
       <c r="E64" s="2">
-        <f>E66*1.5</f>
-        <v>282</v>
+        <f>E65*1.25</f>
+        <v>235</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3112,18 +3097,19 @@
     </row>
     <row r="65" spans="1:21" ht="12.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2">
+        <v>715</v>
+      </c>
       <c r="E65" s="2">
-        <f>E66*1.25</f>
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -3144,7 +3130,7 @@
     </row>
     <row r="66" spans="1:21" ht="12.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>130</v>
@@ -3153,11 +3139,9 @@
         <v>59</v>
       </c>
       <c r="D66" s="2">
-        <v>715</v>
-      </c>
-      <c r="E66" s="2">
-        <v>188</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -3177,16 +3161,12 @@
     </row>
     <row r="67" spans="1:21" ht="12.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="2">
-        <v>268</v>
+        <v>132</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -3208,12 +3188,12 @@
     </row>
     <row r="68" spans="1:21" ht="12.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -3235,12 +3215,16 @@
     </row>
     <row r="69" spans="1:21" ht="12.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="2">
+        <v>80</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -3262,16 +3246,14 @@
     </row>
     <row r="70" spans="1:21" ht="12.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="2">
-        <v>80</v>
+        <v>139</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -3293,14 +3275,14 @@
     </row>
     <row r="71" spans="1:21" ht="12.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2000</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -3322,14 +3304,14 @@
     </row>
     <row r="72" spans="1:21" ht="12.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D72" s="2">
-        <v>2000</v>
+        <v>144</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -3351,14 +3333,14 @@
     </row>
     <row r="73" spans="1:21" ht="12.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -3380,14 +3362,14 @@
     </row>
     <row r="74" spans="1:21" ht="12.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="D74" s="2">
+        <v>6</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -3409,14 +3391,14 @@
     </row>
     <row r="75" spans="1:21" ht="12.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" s="2">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -3438,14 +3420,14 @@
     </row>
     <row r="76" spans="1:21" ht="12.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>151</v>
+        <v>7</v>
+      </c>
+      <c r="D76" s="2">
+        <v>220</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -3467,14 +3449,14 @@
     </row>
     <row r="77" spans="1:21" ht="12.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -3496,14 +3478,14 @@
     </row>
     <row r="78" spans="1:21" ht="12.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="D78" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -3525,16 +3507,20 @@
     </row>
     <row r="79" spans="1:21" ht="12.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="C79" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D79" s="2">
-        <v>60</v>
-      </c>
-      <c r="E79" s="2"/>
+        <v>3740</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -3554,16 +3540,16 @@
     </row>
     <row r="80" spans="1:21" ht="12.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D80" s="2">
-        <v>3740</v>
+        <v>3760</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>159</v>
@@ -3587,16 +3573,16 @@
     </row>
     <row r="81" spans="1:21" ht="12.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D81" s="2">
-        <v>3760</v>
+        <v>3830</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>159</v>
@@ -3620,16 +3606,16 @@
     </row>
     <row r="82" spans="1:21" ht="12.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D82" s="2">
-        <v>3830</v>
+        <v>4060</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>159</v>
@@ -3653,16 +3639,16 @@
     </row>
     <row r="83" spans="1:21" ht="12.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D83" s="2">
-        <v>4060</v>
+        <v>3720</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>159</v>
@@ -3686,16 +3672,16 @@
     </row>
     <row r="84" spans="1:21" ht="12.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D84" s="2">
-        <v>3720</v>
+        <v>4010</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>159</v>
@@ -3719,16 +3705,16 @@
     </row>
     <row r="85" spans="1:21" ht="12.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D85" s="2">
-        <v>4010</v>
+        <v>4880</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>159</v>
@@ -3752,16 +3738,16 @@
     </row>
     <row r="86" spans="1:21" ht="12.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="B86" s="2">
+        <v>304</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D86" s="2">
-        <v>4880</v>
+        <v>15768</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>159</v>
@@ -3785,16 +3771,16 @@
     </row>
     <row r="87" spans="1:21" ht="12.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="2">
-        <v>304</v>
+        <v>173</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D87" s="2">
-        <v>15768</v>
+        <v>3230</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>159</v>
@@ -3818,16 +3804,16 @@
     </row>
     <row r="88" spans="1:21" ht="12.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D88" s="2">
-        <v>3230</v>
+        <v>52530</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>159</v>
@@ -3851,16 +3837,16 @@
     </row>
     <row r="89" spans="1:21" ht="12.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D89" s="2">
-        <v>52530</v>
+        <v>14390</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>159</v>
@@ -3884,16 +3870,16 @@
     </row>
     <row r="90" spans="1:21" ht="12.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D90" s="2">
-        <v>14390</v>
+        <v>14790</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>159</v>
@@ -3917,16 +3903,16 @@
     </row>
     <row r="91" spans="1:21" ht="12.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="B91" s="2">
+        <v>32.5</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D91" s="2">
-        <v>14790</v>
+        <v>320</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>159</v>
@@ -3950,16 +3936,16 @@
     </row>
     <row r="92" spans="1:21" ht="12.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B92" s="2">
-        <v>32.5</v>
+        <v>42.5</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D92" s="2">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>159</v>
@@ -3983,16 +3969,16 @@
     </row>
     <row r="93" spans="1:21" ht="12.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" s="2">
-        <v>42.5</v>
+        <v>183</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="D93" s="2">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>159</v>
@@ -4016,16 +4002,16 @@
     </row>
     <row r="94" spans="1:21" ht="12.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D94" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>159</v>
@@ -4049,16 +4035,16 @@
     </row>
     <row r="95" spans="1:21" ht="12.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D95" s="2">
-        <v>50</v>
+        <v>295</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>159</v>
@@ -4082,16 +4068,16 @@
     </row>
     <row r="96" spans="1:21" ht="12.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D96" s="2">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>159</v>
@@ -4115,16 +4101,16 @@
     </row>
     <row r="97" spans="1:21" ht="12.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D97" s="2">
-        <v>230</v>
+        <v>1280</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>159</v>
@@ -4148,16 +4134,16 @@
     </row>
     <row r="98" spans="1:21" ht="12.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D98" s="2">
-        <v>1280</v>
+        <v>9790</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>159</v>
@@ -4181,16 +4167,16 @@
     </row>
     <row r="99" spans="1:21" ht="12.75" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D99" s="2">
-        <v>9790</v>
+        <v>9040</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>159</v>
@@ -4214,16 +4200,16 @@
     </row>
     <row r="100" spans="1:21" ht="12.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D100" s="2">
-        <v>9040</v>
+        <v>11310</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>159</v>
@@ -4247,7 +4233,7 @@
     </row>
     <row r="101" spans="1:21" ht="12.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>199</v>
@@ -4256,7 +4242,7 @@
         <v>158</v>
       </c>
       <c r="D101" s="2">
-        <v>11310</v>
+        <v>11250</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>159</v>
@@ -4280,7 +4266,7 @@
     </row>
     <row r="102" spans="1:21" ht="12.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>199</v>
@@ -4289,7 +4275,7 @@
         <v>158</v>
       </c>
       <c r="D102" s="2">
-        <v>11250</v>
+        <v>6800</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>159</v>
@@ -4313,16 +4299,16 @@
     </row>
     <row r="103" spans="1:21" ht="12.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D103" s="2">
-        <v>6800</v>
+        <v>4375</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>159</v>
@@ -4346,16 +4332,16 @@
     </row>
     <row r="104" spans="1:21" ht="12.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D104" s="2">
-        <v>4375</v>
+        <v>5900</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>159</v>
@@ -4379,20 +4365,16 @@
     </row>
     <row r="105" spans="1:21" ht="12.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>199</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D105" s="2">
-        <v>5900</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="D105" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -4412,14 +4394,14 @@
     </row>
     <row r="106" spans="1:21" ht="12.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -4441,16 +4423,20 @@
     </row>
     <row r="107" spans="1:21" ht="12.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B107" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="C107" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E107" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="D107" s="2">
+        <v>366.34</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
@@ -4470,19 +4456,19 @@
     </row>
     <row r="108" spans="1:21" ht="12.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D108" s="2">
-        <v>366.34</v>
+        <v>310</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -4503,20 +4489,18 @@
     </row>
     <row r="109" spans="1:21" ht="12.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2">
-        <v>310</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -4536,16 +4520,14 @@
     </row>
     <row r="110" spans="1:21" ht="12.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D110" s="2">
-        <v>5.0999999999999996</v>
+        <v>135</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -4567,16 +4549,20 @@
     </row>
     <row r="111" spans="1:21" ht="12.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="C111" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2">
-        <v>135</v>
-      </c>
-      <c r="E111" s="2"/>
+        <v>54.4</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -4599,13 +4585,13 @@
         <v>219</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2">
-        <v>54.4</v>
+        <v>64.2</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>221</v>
@@ -4629,19 +4615,19 @@
     </row>
     <row r="113" spans="1:21" ht="12.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D113" s="2">
-        <v>64.2</v>
+        <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -4662,19 +4648,19 @@
     </row>
     <row r="114" spans="1:21" ht="12.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D114" s="2">
-        <v>95</v>
+        <v>4020</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -4695,16 +4681,16 @@
     </row>
     <row r="115" spans="1:21" ht="12.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
       <c r="D115" s="2">
-        <v>4020</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>228</v>
@@ -4728,19 +4714,19 @@
     </row>
     <row r="116" spans="1:21" ht="12.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2">
-        <v>4.8499999999999996</v>
+        <v>61.31</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -4761,19 +4747,19 @@
     </row>
     <row r="117" spans="1:21" ht="12.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="D117" s="2">
-        <v>61.31</v>
+        <v>7</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -4794,20 +4780,14 @@
     </row>
     <row r="118" spans="1:21" ht="12.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>235</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D118" s="2">
-        <v>7</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
@@ -4827,13 +4807,17 @@
     </row>
     <row r="119" spans="1:21" ht="12.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="C119" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D119" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="D119" s="2">
+        <v>342</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -4854,16 +4838,14 @@
     </row>
     <row r="120" spans="1:21" ht="12.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>238</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="D120" s="2">
-        <v>342</v>
+        <v>1</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -4885,16 +4867,20 @@
     </row>
     <row r="121" spans="1:21" ht="12.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B121" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="C121" s="2" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2">
-        <v>1</v>
-      </c>
-      <c r="E121" s="2"/>
+        <v>15.21</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -4914,20 +4900,16 @@
     </row>
     <row r="122" spans="1:21" ht="12.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D122" s="2">
-        <v>15.21</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -4947,14 +4929,14 @@
     </row>
     <row r="123" spans="1:21" ht="12.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D123" s="2">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -4976,14 +4958,14 @@
     </row>
     <row r="124" spans="1:21" ht="12.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D124" s="2">
-        <v>16</v>
+        <v>3600</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -5005,14 +4987,14 @@
     </row>
     <row r="125" spans="1:21" ht="12.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="2">
-        <v>3600</v>
+        <v>59</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -5034,14 +5016,14 @@
     </row>
     <row r="126" spans="1:21" ht="12.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>246</v>
+        <v>51</v>
+      </c>
+      <c r="D126" s="2">
+        <v>6290</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -5062,16 +5044,10 @@
       <c r="U126" s="2"/>
     </row>
     <row r="127" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A127" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="A127" s="2"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D127" s="2">
-        <v>6290</v>
-      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -6056,29 +6032,6 @@
       <c r="T169" s="2"/>
       <c r="U169" s="2"/>
     </row>
-    <row r="170" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" s="2"/>
-      <c r="R170" s="2"/>
-      <c r="S170" s="2"/>
-      <c r="T170" s="2"/>
-      <c r="U170" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
